--- a/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2C_IT 210.xlsx
+++ b/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2C_IT 210.xlsx
@@ -74,7 +74,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgsTNRLIBds+61FaZHeYR6gg5ouhQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mieDTMWp3jzR7VkXq5JhfJPyMTjBg=="/>
     </ext>
   </extLst>
 </comments>
@@ -1250,6 +1250,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1293,9 +1296,6 @@
     </xf>
     <xf borderId="23" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1569,7 +1569,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1597,7 +1597,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1630,7 +1630,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1658,7 +1658,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2942,30 +2942,30 @@
       <c r="E20" s="54"/>
       <c r="F20" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="56">
-        <v>69.0</v>
-      </c>
-      <c r="H20" s="56">
-        <v>89.0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>135.0</v>
+        <v>2.5</v>
+      </c>
+      <c r="G20" s="66">
+        <v>50.0</v>
+      </c>
+      <c r="H20" s="66">
+        <v>50.0</v>
+      </c>
+      <c r="I20" s="66">
+        <v>100.0</v>
       </c>
       <c r="J20" s="57">
         <f t="shared" si="2"/>
-        <v>83.29545455</v>
-      </c>
-      <c r="K20" s="56">
-        <v>51.0</v>
-      </c>
-      <c r="L20" s="56">
-        <v>56.0</v>
+        <v>72.72727273</v>
+      </c>
+      <c r="K20" s="66">
+        <v>40.0</v>
+      </c>
+      <c r="L20" s="66">
+        <v>30.0</v>
       </c>
       <c r="M20" s="58">
         <f t="shared" si="3"/>
-        <v>94.58333333</v>
+        <v>79.16666667</v>
       </c>
       <c r="N20" s="59">
         <v>2.0</v>
@@ -2990,20 +2990,20 @@
       <c r="T20" s="63">
         <v>66.0</v>
       </c>
-      <c r="U20" s="63">
-        <v>86.0</v>
+      <c r="U20" s="67">
+        <v>70.0</v>
       </c>
       <c r="V20" s="64">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W20" s="65">
         <f t="shared" si="7"/>
-        <v>87.08511954</v>
+        <v>79.63133167</v>
       </c>
       <c r="X20" s="65">
         <f>VLOOKUP(W20,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3143,7 +3143,7 @@
       <c r="O22" s="59">
         <v>5.0</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="68">
         <v>88.0</v>
       </c>
       <c r="Q22" s="60">
@@ -3367,30 +3367,30 @@
       <c r="E25" s="54"/>
       <c r="F25" s="55">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="G25" s="56">
-        <v>92.0</v>
+        <v>5</v>
+      </c>
+      <c r="G25" s="66">
+        <v>50.0</v>
       </c>
       <c r="H25" s="56">
         <v>64.0</v>
       </c>
-      <c r="I25" s="56">
-        <v>120.0</v>
+      <c r="I25" s="66">
+        <v>100.0</v>
       </c>
       <c r="J25" s="57">
         <f t="shared" si="2"/>
-        <v>81.36363636</v>
-      </c>
-      <c r="K25" s="56">
-        <v>35.0</v>
-      </c>
-      <c r="L25" s="56">
-        <v>32.0</v>
+        <v>74.31818182</v>
+      </c>
+      <c r="K25" s="66">
+        <v>20.0</v>
+      </c>
+      <c r="L25" s="66">
+        <v>25.0</v>
       </c>
       <c r="M25" s="58">
         <f t="shared" si="3"/>
-        <v>77.91666667</v>
+        <v>68.75</v>
       </c>
       <c r="N25" s="59">
         <v>2.0</v>
@@ -3424,15 +3424,15 @@
       </c>
       <c r="W25" s="65">
         <f t="shared" si="7"/>
-        <v>78.90412149</v>
+        <v>74.95715179</v>
       </c>
       <c r="X25" s="65">
         <f>VLOOKUP(W25,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="65" t="str">
         <f t="shared" si="8"/>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
       <c r="Z25" s="65"/>
     </row>
@@ -5052,89 +5052,89 @@
       <c r="Z44" s="65"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="68">
+      <c r="A45" s="69">
         <v>33.0</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="70">
         <v>2.021114942E9</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="71">
+      <c r="E45" s="71"/>
+      <c r="F45" s="72">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="73">
         <v>118.0</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="73">
         <v>115.0</v>
       </c>
-      <c r="I45" s="73">
+      <c r="I45" s="74">
         <v>200.0</v>
       </c>
-      <c r="J45" s="74">
+      <c r="J45" s="75">
         <f t="shared" si="2"/>
         <v>99.20454545</v>
       </c>
-      <c r="K45" s="73">
+      <c r="K45" s="74">
         <v>55.0</v>
       </c>
-      <c r="L45" s="73">
+      <c r="L45" s="74">
         <v>54.0</v>
       </c>
-      <c r="M45" s="75">
+      <c r="M45" s="76">
         <f t="shared" si="3"/>
         <v>95.41666667</v>
       </c>
-      <c r="N45" s="76">
+      <c r="N45" s="77">
         <v>2.0</v>
       </c>
-      <c r="O45" s="76">
+      <c r="O45" s="77">
         <v>5.0</v>
       </c>
-      <c r="P45" s="77">
+      <c r="P45" s="78">
         <v>94.0</v>
       </c>
-      <c r="Q45" s="78">
+      <c r="Q45" s="79">
         <f t="shared" si="4"/>
         <v>96.33027523</v>
       </c>
-      <c r="R45" s="79">
+      <c r="R45" s="80">
         <v>8.0</v>
       </c>
-      <c r="S45" s="80">
+      <c r="S45" s="81">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T45" s="81">
+      <c r="T45" s="82">
         <v>91.0</v>
       </c>
-      <c r="U45" s="81">
+      <c r="U45" s="82">
         <v>72.0</v>
       </c>
-      <c r="V45" s="82">
+      <c r="V45" s="83">
         <f t="shared" si="6"/>
         <v>90.75</v>
       </c>
-      <c r="W45" s="83">
+      <c r="W45" s="84">
         <f t="shared" si="7"/>
         <v>95.01923825</v>
       </c>
-      <c r="X45" s="83">
+      <c r="X45" s="84">
         <f>VLOOKUP(W45,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.25</v>
       </c>
-      <c r="Y45" s="83" t="str">
+      <c r="Y45" s="84" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z45" s="83"/>
+      <c r="Z45" s="84"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="52">
@@ -5625,7 +5625,7 @@
       <c r="T51" s="63">
         <v>95.0</v>
       </c>
-      <c r="U51" s="84">
+      <c r="U51" s="67">
         <v>92.0</v>
       </c>
       <c r="V51" s="64">
